--- a/Зведена таблиця.xlsx
+++ b/Зведена таблиця.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\program_code\learncode\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F611081-BE39-4464-ADBF-E32CB982D60B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46439727-8D69-42C1-9BC0-92FD980940A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>20.12.2023 - 25.12.2023</t>
   </si>
@@ -66,9 +66,6 @@
     <t>верстка даного блоку</t>
   </si>
   <si>
-    <t>в роботі</t>
-  </si>
-  <si>
     <t>бургер меню</t>
   </si>
   <si>
@@ -112,6 +109,18 @@
   </si>
   <si>
     <t>Всього</t>
+  </si>
+  <si>
+    <t>виконано</t>
+  </si>
+  <si>
+    <t>адаптація для мобільних пристроїв</t>
+  </si>
+  <si>
+    <t>Підготовка та налагодження проекту</t>
+  </si>
+  <si>
+    <t>блок header content</t>
   </si>
 </sst>
 </file>
@@ -279,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -305,6 +314,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -321,33 +360,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -635,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:R40"/>
+  <dimension ref="A2:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -649,356 +661,335 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="18" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="24"/>
       <c r="D4" s="24"/>
       <c r="E4" s="24"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="23" t="s">
+      <c r="F4" s="19"/>
+      <c r="G4" s="18" t="s">
         <v>3</v>
       </c>
       <c r="H4" s="24"/>
       <c r="I4" s="24"/>
       <c r="J4" s="24"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="23" t="s">
+      <c r="K4" s="19"/>
+      <c r="L4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="25"/>
-      <c r="N4" s="23" t="s">
+      <c r="M4" s="19"/>
+      <c r="N4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="25"/>
-      <c r="P4" s="23" t="s">
+      <c r="O4" s="19"/>
+      <c r="P4" s="18" t="s">
         <v>6</v>
       </c>
       <c r="Q4" s="24"/>
-      <c r="R4" s="25"/>
+      <c r="R4" s="19"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="28"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="21"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="31"/>
-    </row>
-    <row r="7" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="15" t="s">
+      <c r="A6" s="32"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="23"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" s="17">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8" s="6"/>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8" s="6"/>
+      <c r="Q8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R8" s="6"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="R9" s="9"/>
+    </row>
+    <row r="10" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="10"/>
+      <c r="B10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="1">
-        <v>12</v>
-      </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="R7" s="3"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="4">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="4">
         <v>3</v>
       </c>
-      <c r="M8" s="6"/>
-      <c r="N8" s="4">
+      <c r="M11" s="6"/>
+      <c r="N11" s="4">
         <v>2</v>
       </c>
-      <c r="O8" s="6"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="6"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
+      <c r="O11" s="6"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="6"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
         <v>1</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="4">
-        <v>3</v>
-      </c>
-      <c r="M9" s="6"/>
-      <c r="N9" s="4">
-        <v>2</v>
-      </c>
-      <c r="O9" s="6"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="R9" s="6"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="4">
-        <v>3</v>
-      </c>
-      <c r="M10" s="6"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="R10" s="6"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="9"/>
-    </row>
-    <row r="12" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="4"/>
+      <c r="L12" s="4">
+        <v>4</v>
+      </c>
       <c r="M12" s="6"/>
-      <c r="N12" s="4"/>
+      <c r="N12" s="4">
+        <v>3</v>
+      </c>
       <c r="O12" s="6"/>
       <c r="P12" s="4"/>
-      <c r="Q12" s="5"/>
+      <c r="Q12" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="R12" s="6"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
+      <c r="B13" s="4"/>
       <c r="C13" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="6"/>
+      <c r="G13" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="29"/>
       <c r="L13" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O13" s="6"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="R13" s="6"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="6"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
       <c r="G14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="4">
-        <v>4</v>
-      </c>
-      <c r="M14" s="6"/>
-      <c r="N14" s="4">
-        <v>3</v>
-      </c>
-      <c r="O14" s="6"/>
-      <c r="P14" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="7">
+        <v>2</v>
+      </c>
+      <c r="M14" s="9"/>
+      <c r="N14" s="7">
+        <v>1</v>
+      </c>
+      <c r="O14" s="9"/>
+      <c r="P14" s="7"/>
       <c r="Q14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="R14" s="6"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="9"/>
+        <v>26</v>
+      </c>
+      <c r="R14" s="9"/>
+    </row>
+    <row r="15" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="10"/>
+      <c r="B15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="6"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="4"/>
+      <c r="G16" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="6"/>
-      <c r="L16" s="4"/>
+      <c r="L16" s="4">
+        <v>4</v>
+      </c>
       <c r="M16" s="6"/>
-      <c r="N16" s="4"/>
+      <c r="N16" s="4">
+        <v>3</v>
+      </c>
       <c r="O16" s="6"/>
       <c r="P16" s="4"/>
-      <c r="Q16" s="5"/>
+      <c r="Q16" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="R16" s="6"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
+      <c r="B17" s="4"/>
       <c r="C17" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
       <c r="G17" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="6"/>
       <c r="L17" s="4">
+        <v>4</v>
+      </c>
+      <c r="M17" s="6"/>
+      <c r="N17" s="4">
         <v>2</v>
       </c>
-      <c r="M17" s="6"/>
-      <c r="N17" s="4"/>
       <c r="O17" s="6"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="R17" s="6"/>
     </row>
@@ -1045,314 +1036,403 @@
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="C20" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="6"/>
       <c r="G20" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="6"/>
       <c r="L20" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M20" s="6"/>
-      <c r="N20" s="4"/>
+      <c r="N20" s="4">
+        <v>2</v>
+      </c>
       <c r="O20" s="6"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="R20" s="6"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="11">
-        <v>3</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="6"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="9"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="9"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="6"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
+      <c r="C23" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="4"/>
+      <c r="G23" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="6"/>
-      <c r="L23" s="4"/>
+      <c r="L23" s="4">
+        <v>3</v>
+      </c>
       <c r="M23" s="6"/>
-      <c r="N23" s="4"/>
+      <c r="N23" s="4">
+        <v>1</v>
+      </c>
       <c r="O23" s="6"/>
       <c r="P23" s="4"/>
-      <c r="Q23" s="5"/>
+      <c r="Q23" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="R23" s="6"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
-      <c r="C24" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="A24" s="11">
+        <v>3</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="G24" s="4"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
       <c r="K24" s="6"/>
-      <c r="L24" s="4">
-        <v>2</v>
-      </c>
+      <c r="L24" s="4"/>
       <c r="M24" s="6"/>
       <c r="N24" s="4"/>
       <c r="O24" s="6"/>
       <c r="P24" s="4"/>
-      <c r="Q24" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="Q24" s="5"/>
       <c r="R24" s="6"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="5">
-        <v>2</v>
-      </c>
-      <c r="M25" s="6"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="6"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="9"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="9"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="6"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
+      <c r="C27" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="5"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="3"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="4">
+        <v>2</v>
+      </c>
+      <c r="M27" s="6"/>
+      <c r="N27" s="4">
+        <v>2</v>
+      </c>
+      <c r="O27" s="6"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R27" s="6"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
+      <c r="B28" s="5"/>
       <c r="C28" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="6"/>
-      <c r="G28" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="6"/>
       <c r="L28" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M28" s="6"/>
-      <c r="N28" s="5"/>
+      <c r="N28" s="5">
+        <v>1</v>
+      </c>
       <c r="O28" s="6"/>
       <c r="P28" s="5"/>
       <c r="Q28" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="R28" s="6"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="R29" s="6"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="9"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="9"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="3"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A31" s="3"/>
+      <c r="A31" s="13"/>
+      <c r="C31" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
       <c r="F31" s="6"/>
+      <c r="G31" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
       <c r="K31" s="6"/>
+      <c r="L31" s="5">
+        <v>2</v>
+      </c>
       <c r="M31" s="6"/>
+      <c r="N31" s="5">
+        <v>1</v>
+      </c>
       <c r="O31" s="6"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="R31" s="6"/>
     </row>
-    <row r="32" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="13">
-        <v>4</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>25</v>
-      </c>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32" s="6"/>
       <c r="F32" s="6"/>
-      <c r="G32" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="K32" s="6"/>
-      <c r="L32">
-        <v>6</v>
-      </c>
       <c r="M32" s="6"/>
       <c r="O32" s="6"/>
-      <c r="Q32" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="R32" s="6"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="R33" s="6"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="9"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A34" s="9"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="9"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A35" s="3"/>
+      <c r="A34" s="3"/>
+      <c r="F34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="R34" s="6"/>
+    </row>
+    <row r="35" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="13">
+        <v>4</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="6"/>
+      <c r="G35" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K35" s="6"/>
+      <c r="L35">
+        <v>6</v>
+      </c>
+      <c r="M35" s="6"/>
+      <c r="N35">
+        <v>6</v>
+      </c>
+      <c r="O35" s="6"/>
+      <c r="Q35" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="R35" s="6"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="O36" s="6"/>
       <c r="R36" s="6"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A37" s="6"/>
-      <c r="R37" s="6"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="9"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A38" s="6"/>
+      <c r="A38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="O38" s="3"/>
       <c r="R38" s="6"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A39" s="6"/>
+      <c r="A39" s="17">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39">
+        <v>10</v>
+      </c>
+      <c r="M39" s="6"/>
+      <c r="N39">
+        <v>12</v>
+      </c>
+      <c r="O39" s="6"/>
       <c r="R39" s="6"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
@@ -1361,30 +1441,61 @@
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
+      <c r="F40" s="9"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
-      <c r="I40" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="I40" s="8"/>
       <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8">
-        <f>SUM(L7:L34)</f>
-        <v>48</v>
-      </c>
-      <c r="M40" s="8"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="9"/>
       <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
+      <c r="O40" s="9"/>
       <c r="P40" s="8"/>
       <c r="Q40" s="8"/>
       <c r="R40" s="9"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A41" s="6"/>
+      <c r="R41" s="6"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A42" s="6"/>
+      <c r="R42" s="6"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A43" s="9"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8">
+        <f>SUM(L10:L39)</f>
+        <v>46</v>
+      </c>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8">
+        <f>SUM(N8:N39)</f>
+        <v>41</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="N4:O6"/>
     <mergeCell ref="P4:R6"/>
-    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G13:K13"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:F6"/>
     <mergeCell ref="G4:K6"/>
